--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999287728</v>
       </c>
       <c r="E2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999287728</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6.324378257887145E-05</v>
+        <v>6.397240495861397E-16</v>
       </c>
       <c r="E3">
-        <v>6.324378257887145E-05</v>
+        <v>6.397240495861397E-16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.00180122223976834</v>
+        <v>0.00237195744260533</v>
       </c>
       <c r="E4">
-        <v>0.00180122223976834</v>
+        <v>0.00237195744260533</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.77721223683366E-10</v>
+        <v>1.950219491160004E-10</v>
       </c>
       <c r="E5">
-        <v>2.77721223683366E-10</v>
+        <v>1.950219491160004E-10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>8.242945535935524E-13</v>
+        <v>8.887446939718487E-11</v>
       </c>
       <c r="E6">
-        <v>8.242945535935524E-13</v>
+        <v>8.887446939718487E-11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999962052906</v>
+        <v>0.9999999999999836</v>
       </c>
       <c r="E7">
-        <v>3.794709435567256E-09</v>
+        <v>1.643130076445232E-14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.185641582800554E-07</v>
+        <v>8.411375117423039E-07</v>
       </c>
       <c r="E8">
-        <v>0.9999990814358417</v>
+        <v>0.9999991588624882</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9959271126145341</v>
+        <v>0.543898696947709</v>
       </c>
       <c r="E9">
-        <v>0.004072887385465851</v>
+        <v>0.456101303052291</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.999979250678345</v>
+        <v>0.9999835054572835</v>
       </c>
       <c r="E11">
-        <v>2.074932165496701E-05</v>
+        <v>1.649454271646089E-05</v>
       </c>
       <c r="F11">
-        <v>5.05280590057373</v>
+        <v>3.796504259109497</v>
       </c>
       <c r="G11">
         <v>0.8</v>
